--- a/src/main/resources/files/reg/registratsiyaPaspport.xlsx
+++ b/src/main/resources/files/reg/registratsiyaPaspport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
   <si>
     <t>Ismi</t>
   </si>
@@ -285,6 +285,72 @@
   </si>
   <si>
     <t>sdfghj</t>
+  </si>
+  <si>
+    <t>sddssd</t>
+  </si>
+  <si>
+    <t>dsdsds</t>
+  </si>
+  <si>
+    <t>dfdfdfd</t>
+  </si>
+  <si>
+    <t>12.12.2004</t>
+  </si>
+  <si>
+    <t>565656</t>
+  </si>
+  <si>
+    <t>AS1111222</t>
+  </si>
+  <si>
+    <t>+998990986754</t>
+  </si>
+  <si>
+    <t>fgfg</t>
+  </si>
+  <si>
+    <t>hfh</t>
+  </si>
+  <si>
+    <t>gfgfgfg</t>
+  </si>
+  <si>
+    <t>hfhhf</t>
+  </si>
+  <si>
+    <t>hffhfh</t>
+  </si>
+  <si>
+    <t>fhfhff</t>
+  </si>
+  <si>
+    <t>Azizbek</t>
+  </si>
+  <si>
+    <t>Azizov</t>
+  </si>
+  <si>
+    <t>Umarjon og'li</t>
+  </si>
+  <si>
+    <t>02.06.2004</t>
+  </si>
+  <si>
+    <t>AD0362099</t>
+  </si>
+  <si>
+    <t>Muhidiov</t>
+  </si>
+  <si>
+    <t>Onasi</t>
+  </si>
+  <si>
+    <t>Muhidov</t>
+  </si>
+  <si>
+    <t>+998991234312</t>
   </si>
 </sst>
 </file>
@@ -329,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -337,7 +403,7 @@
   <cols>
     <col min="1" max="1" width="9.578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.57421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.05859375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.02734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="20.359375" customWidth="true" bestFit="true"/>
@@ -710,6 +776,124 @@
         <v>28</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R8" t="s">
+        <v>111</v>
+      </c>
+      <c r="S8" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
